--- a/ig/ch-elm/StructureDefinition-ch-elm-composition-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition-strict.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition-strict.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="722">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1085,16 +1085,13 @@
     <t>The clinical domain of the laboratory performing the observation (e.g. microbiology, toxicology, chemistry)</t>
   </si>
   <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+    <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
+  </si>
+  <si>
+    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
   </si>
   <si>
     <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-studyType-eu-lab</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>Composition.category:specialty</t>
@@ -1413,7 +1410,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1740,7 +1737,7 @@
     <t>Composition.section.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -2585,15 +2582,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="72.36328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.06640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.65625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.77734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.7109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2604,27 +2601,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="29.3359375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="25.1484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7790,7 +7787,7 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>341</v>
@@ -7861,36 +7858,36 @@
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>327</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>79</v>
@@ -7909,13 +7906,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>341</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>343</v>
@@ -7953,7 +7950,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7980,33 +7977,33 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8029,19 +8026,19 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -8090,7 +8087,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8108,24 +8105,24 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8237,10 +8234,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8354,10 +8351,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8471,10 +8468,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8588,10 +8585,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8705,10 +8702,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8822,10 +8819,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8848,17 +8845,17 @@
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8907,7 +8904,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8922,27 +8919,27 @@
         <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8965,19 +8962,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -9026,7 +9023,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>92</v>
@@ -9041,27 +9038,27 @@
         <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9084,17 +9081,17 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -9143,7 +9140,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>92</v>
@@ -9158,27 +9155,27 @@
         <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9290,10 +9287,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9407,10 +9404,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9524,10 +9521,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9641,10 +9638,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9758,10 +9755,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9875,10 +9872,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9904,13 +9901,13 @@
         <v>152</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9960,7 +9957,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>92</v>
@@ -9978,13 +9975,13 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9992,10 +9989,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10021,13 +10018,13 @@
         <v>112</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10056,11 +10053,11 @@
         <v>259</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
       </c>
@@ -10077,7 +10074,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10095,13 +10092,13 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -10109,10 +10106,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10135,19 +10132,19 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10196,7 +10193,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10214,13 +10211,13 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -10228,10 +10225,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10343,10 +10340,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10460,14 +10457,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10489,10 +10486,10 @@
         <v>137</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>207</v>
@@ -10547,7 +10544,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10579,10 +10576,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10608,14 +10605,14 @@
         <v>112</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10643,11 +10640,11 @@
         <v>259</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10664,7 +10661,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>92</v>
@@ -10682,10 +10679,10 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10696,10 +10693,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10722,17 +10719,17 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10781,7 +10778,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10799,10 +10796,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10813,10 +10810,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10839,17 +10836,17 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10898,7 +10895,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10916,24 +10913,24 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11045,10 +11042,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11162,10 +11159,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11279,10 +11276,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11396,10 +11393,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11513,10 +11510,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11630,10 +11627,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11656,19 +11653,19 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11717,7 +11714,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11735,13 +11732,13 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11749,10 +11746,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11864,10 +11861,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11981,10 +11978,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12098,10 +12095,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12215,10 +12212,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12332,10 +12329,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12449,10 +12446,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12475,16 +12472,16 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12534,7 +12531,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12552,13 +12549,13 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12566,10 +12563,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12681,10 +12678,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12798,14 +12795,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12827,10 +12824,10 @@
         <v>137</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>207</v>
@@ -12885,7 +12882,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12917,10 +12914,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12946,13 +12943,13 @@
         <v>112</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12981,11 +12978,11 @@
         <v>259</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
       </c>
@@ -13002,7 +12999,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>92</v>
@@ -13020,13 +13017,13 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AM89" t="s" s="2">
+      <c r="AN89" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -13034,10 +13031,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13060,13 +13057,13 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13117,7 +13114,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>92</v>
@@ -13135,13 +13132,13 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AN90" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -13149,10 +13146,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13175,19 +13172,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13236,7 +13233,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13254,13 +13251,13 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13268,10 +13265,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13383,10 +13380,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13500,14 +13497,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13529,10 +13526,10 @@
         <v>137</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>207</v>
@@ -13587,7 +13584,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13619,10 +13616,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13648,13 +13645,13 @@
         <v>265</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13683,11 +13680,11 @@
         <v>332</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="AA95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13704,7 +13701,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13728,7 +13725,7 @@
         <v>324</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13736,10 +13733,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13765,10 +13762,10 @@
         <v>291</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13819,7 +13816,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13837,13 +13834,13 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13851,10 +13848,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13877,13 +13874,13 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13934,7 +13931,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13952,7 +13949,7 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>156</v>
@@ -13966,10 +13963,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13992,13 +13989,13 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14037,17 +14034,17 @@
         <v>79</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14059,16 +14056,16 @@
         <v>79</v>
       </c>
       <c r="AJ98" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AK98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -14079,10 +14076,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14194,10 +14191,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14311,14 +14308,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14340,10 +14337,10 @@
         <v>137</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>207</v>
@@ -14398,7 +14395,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14430,14 +14427,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14459,16 +14456,16 @@
         <v>152</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>79</v>
@@ -14517,7 +14514,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14535,10 +14532,10 @@
         <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14549,10 +14546,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14578,16 +14575,16 @@
         <v>265</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>79</v>
@@ -14615,11 +14612,11 @@
         <v>332</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Z103" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="AA103" t="s" s="2">
         <v>79</v>
       </c>
@@ -14636,7 +14633,7 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14668,10 +14665,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14694,17 +14691,17 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>79</v>
@@ -14753,7 +14750,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14771,24 +14768,24 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM104" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14811,16 +14808,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14870,7 +14867,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14891,7 +14888,7 @@
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14902,10 +14899,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14931,13 +14928,13 @@
         <v>122</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14987,7 +14984,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14996,7 +14993,7 @@
         <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>104</v>
@@ -15005,10 +15002,10 @@
         <v>79</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -15019,10 +15016,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15048,16 +15045,16 @@
         <v>112</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>79</v>
@@ -15085,11 +15082,11 @@
         <v>259</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="Z107" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AA107" t="s" s="2">
         <v>79</v>
       </c>
@@ -15106,7 +15103,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15124,7 +15121,7 @@
         <v>79</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>156</v>
@@ -15138,10 +15135,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15167,16 +15164,16 @@
         <v>265</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="N108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>79</v>
@@ -15204,11 +15201,11 @@
         <v>116</v>
       </c>
       <c r="Y108" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z108" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="Z108" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AA108" t="s" s="2">
         <v>79</v>
       </c>
@@ -15225,7 +15222,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15243,7 +15240,7 @@
         <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>156</v>
@@ -15257,10 +15254,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15283,16 +15280,16 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15342,7 +15339,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15351,7 +15348,7 @@
         <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>104</v>
@@ -15360,10 +15357,10 @@
         <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15374,10 +15371,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15403,16 +15400,16 @@
         <v>265</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>79</v>
@@ -15440,11 +15437,11 @@
         <v>116</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="Z110" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA110" t="s" s="2">
         <v>79</v>
       </c>
@@ -15461,7 +15458,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15470,7 +15467,7 @@
         <v>92</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>104</v>
@@ -15479,7 +15476,7 @@
         <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>156</v>
@@ -15493,10 +15490,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15522,13 +15519,13 @@
         <v>79</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15578,7 +15575,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15587,7 +15584,7 @@
         <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>104</v>
@@ -15596,10 +15593,10 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15610,13 +15607,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C112" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>79</v>
@@ -15638,13 +15635,13 @@
         <v>79</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15695,7 +15692,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15707,16 +15704,16 @@
         <v>79</v>
       </c>
       <c r="AJ112" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AK112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL112" t="s" s="2">
+      <c r="AM112" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
@@ -15727,10 +15724,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15842,10 +15839,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15959,14 +15956,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -15988,10 +15985,10 @@
         <v>137</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>207</v>
@@ -16046,7 +16043,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16078,14 +16075,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16107,16 +16104,16 @@
         <v>152</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>79</v>
@@ -16165,7 +16162,7 @@
         <v>79</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16183,10 +16180,10 @@
         <v>79</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>79</v>
@@ -16197,10 +16194,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16226,16 +16223,16 @@
         <v>265</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>79</v>
@@ -16245,7 +16242,7 @@
         <v>79</v>
       </c>
       <c r="S117" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="T117" t="s" s="2">
         <v>79</v>
@@ -16282,7 +16279,7 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16314,10 +16311,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16340,17 +16337,17 @@
         <v>79</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>79</v>
@@ -16399,7 +16396,7 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16417,24 +16414,24 @@
         <v>79</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM118" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16457,16 +16454,16 @@
         <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -16516,7 +16513,7 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16537,7 +16534,7 @@
         <v>79</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -16548,10 +16545,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16577,13 +16574,13 @@
         <v>122</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M120" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16633,7 +16630,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16642,7 +16639,7 @@
         <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>104</v>
@@ -16651,10 +16648,10 @@
         <v>79</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16665,10 +16662,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16694,16 +16691,16 @@
         <v>112</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="N121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>79</v>
@@ -16731,11 +16728,11 @@
         <v>259</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z121" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="Z121" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AA121" t="s" s="2">
         <v>79</v>
       </c>
@@ -16752,7 +16749,7 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16770,7 +16767,7 @@
         <v>79</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>156</v>
@@ -16784,10 +16781,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16813,16 +16810,16 @@
         <v>265</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>79</v>
@@ -16850,11 +16847,11 @@
         <v>116</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z122" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="Z122" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AA122" t="s" s="2">
         <v>79</v>
       </c>
@@ -16871,7 +16868,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16889,7 +16886,7 @@
         <v>79</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>156</v>
@@ -16903,10 +16900,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16929,16 +16926,16 @@
         <v>79</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16988,7 +16985,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -16997,7 +16994,7 @@
         <v>81</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>104</v>
@@ -17006,10 +17003,10 @@
         <v>79</v>
       </c>
       <c r="AL123" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM123" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>79</v>
@@ -17020,10 +17017,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17049,16 +17046,16 @@
         <v>265</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="N124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -17086,11 +17083,11 @@
         <v>116</v>
       </c>
       <c r="Y124" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z124" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="Z124" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA124" t="s" s="2">
         <v>79</v>
       </c>
@@ -17107,7 +17104,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17116,7 +17113,7 @@
         <v>92</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>104</v>
@@ -17125,7 +17122,7 @@
         <v>79</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>156</v>
@@ -17139,10 +17136,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17168,13 +17165,13 @@
         <v>79</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17224,7 +17221,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17233,7 +17230,7 @@
         <v>81</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>104</v>
@@ -17242,10 +17239,10 @@
         <v>79</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>79</v>
@@ -17256,13 +17253,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C126" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C126" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>79</v>
@@ -17284,13 +17281,13 @@
         <v>79</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17341,7 +17338,7 @@
         <v>79</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17353,16 +17350,16 @@
         <v>79</v>
       </c>
       <c r="AJ126" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL126" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AK126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL126" t="s" s="2">
+      <c r="AM126" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>79</v>
@@ -17373,10 +17370,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17488,10 +17485,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17605,14 +17602,14 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17634,10 +17631,10 @@
         <v>137</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>207</v>
@@ -17692,7 +17689,7 @@
         <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17724,18 +17721,18 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>92</v>
@@ -17753,16 +17750,16 @@
         <v>152</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>79</v>
@@ -17811,7 +17808,7 @@
         <v>79</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -17829,10 +17826,10 @@
         <v>79</v>
       </c>
       <c r="AL130" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>79</v>
@@ -17843,10 +17840,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17854,7 +17851,7 @@
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>92</v>
@@ -17872,16 +17869,16 @@
         <v>265</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="N131" t="s" s="2">
+      <c r="O131" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>79</v>
@@ -17928,7 +17925,7 @@
         <v>79</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -17960,10 +17957,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17986,17 +17983,17 @@
         <v>79</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>79</v>
@@ -18045,7 +18042,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18063,24 +18060,24 @@
         <v>79</v>
       </c>
       <c r="AL132" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM132" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM132" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AN132" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18103,16 +18100,16 @@
         <v>79</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18162,7 +18159,7 @@
         <v>79</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18183,7 +18180,7 @@
         <v>79</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>79</v>
@@ -18194,10 +18191,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18223,13 +18220,13 @@
         <v>122</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -18279,7 +18276,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18288,7 +18285,7 @@
         <v>92</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>104</v>
@@ -18297,10 +18294,10 @@
         <v>79</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>79</v>
@@ -18311,10 +18308,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18340,16 +18337,16 @@
         <v>112</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="N135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>79</v>
@@ -18377,11 +18374,11 @@
         <v>259</v>
       </c>
       <c r="Y135" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z135" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="Z135" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AA135" t="s" s="2">
         <v>79</v>
       </c>
@@ -18398,7 +18395,7 @@
         <v>79</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18416,7 +18413,7 @@
         <v>79</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>156</v>
@@ -18430,10 +18427,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18459,16 +18456,16 @@
         <v>265</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>79</v>
@@ -18496,11 +18493,11 @@
         <v>116</v>
       </c>
       <c r="Y136" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z136" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="Z136" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AA136" t="s" s="2">
         <v>79</v>
       </c>
@@ -18517,7 +18514,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18535,7 +18532,7 @@
         <v>79</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>156</v>
@@ -18549,10 +18546,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18575,16 +18572,16 @@
         <v>79</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18634,7 +18631,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18643,7 +18640,7 @@
         <v>81</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>104</v>
@@ -18652,10 +18649,10 @@
         <v>79</v>
       </c>
       <c r="AL137" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM137" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>79</v>
@@ -18666,10 +18663,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18695,16 +18692,16 @@
         <v>265</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="N138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>79</v>
@@ -18732,11 +18729,11 @@
         <v>116</v>
       </c>
       <c r="Y138" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z138" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="Z138" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA138" t="s" s="2">
         <v>79</v>
       </c>
@@ -18753,7 +18750,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -18762,7 +18759,7 @@
         <v>92</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>104</v>
@@ -18771,7 +18768,7 @@
         <v>79</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>156</v>
@@ -18785,10 +18782,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18811,16 +18808,16 @@
         <v>79</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -18870,7 +18867,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -18879,7 +18876,7 @@
         <v>81</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>104</v>
@@ -18888,10 +18885,10 @@
         <v>79</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>79</v>
@@ -18902,10 +18899,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B140" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19017,10 +19014,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B141" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19134,14 +19131,14 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B142" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
@@ -19163,10 +19160,10 @@
         <v>137</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N142" t="s" s="2">
         <v>207</v>
@@ -19221,7 +19218,7 @@
         <v>79</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19253,14 +19250,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B143" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
@@ -19282,16 +19279,16 @@
         <v>152</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N143" t="s" s="2">
+      <c r="O143" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>79</v>
@@ -19340,7 +19337,7 @@
         <v>79</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19358,10 +19355,10 @@
         <v>79</v>
       </c>
       <c r="AL143" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM143" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>79</v>
@@ -19372,10 +19369,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B144" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19401,16 +19398,16 @@
         <v>265</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>79</v>
@@ -19457,7 +19454,7 @@
         <v>79</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -19489,10 +19486,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B145" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19515,17 +19512,17 @@
         <v>79</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>79</v>
@@ -19574,7 +19571,7 @@
         <v>79</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -19592,24 +19589,24 @@
         <v>79</v>
       </c>
       <c r="AL145" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM145" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM145" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AN145" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B146" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19632,16 +19629,16 @@
         <v>79</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -19691,7 +19688,7 @@
         <v>79</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -19712,7 +19709,7 @@
         <v>79</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>79</v>
@@ -19723,10 +19720,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B147" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19752,13 +19749,13 @@
         <v>122</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M147" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -19808,7 +19805,7 @@
         <v>79</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -19817,7 +19814,7 @@
         <v>92</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>104</v>
@@ -19826,10 +19823,10 @@
         <v>79</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>79</v>
@@ -19840,10 +19837,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B148" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19869,16 +19866,16 @@
         <v>112</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="N148" t="s" s="2">
+      <c r="O148" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>79</v>
@@ -19906,11 +19903,11 @@
         <v>259</v>
       </c>
       <c r="Y148" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z148" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="Z148" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AA148" t="s" s="2">
         <v>79</v>
       </c>
@@ -19927,7 +19924,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -19945,7 +19942,7 @@
         <v>79</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>156</v>
@@ -19959,10 +19956,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B149" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19988,16 +19985,16 @@
         <v>265</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="N149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>79</v>
@@ -20025,11 +20022,11 @@
         <v>116</v>
       </c>
       <c r="Y149" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z149" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="Z149" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AA149" t="s" s="2">
         <v>79</v>
       </c>
@@ -20046,7 +20043,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20064,7 +20061,7 @@
         <v>79</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>156</v>
@@ -20078,10 +20075,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B150" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20104,16 +20101,16 @@
         <v>79</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -20163,7 +20160,7 @@
         <v>79</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20172,7 +20169,7 @@
         <v>81</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>104</v>
@@ -20181,10 +20178,10 @@
         <v>79</v>
       </c>
       <c r="AL150" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM150" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>79</v>
@@ -20195,10 +20192,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B151" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20224,16 +20221,16 @@
         <v>265</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="N151" t="s" s="2">
+      <c r="O151" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>79</v>
@@ -20261,11 +20258,11 @@
         <v>116</v>
       </c>
       <c r="Y151" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z151" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="Z151" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA151" t="s" s="2">
         <v>79</v>
       </c>
@@ -20282,7 +20279,7 @@
         <v>79</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20291,7 +20288,7 @@
         <v>92</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>104</v>
@@ -20300,7 +20297,7 @@
         <v>79</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>156</v>
@@ -20314,10 +20311,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20343,13 +20340,13 @@
         <v>79</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20399,7 +20396,7 @@
         <v>79</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20408,7 +20405,7 @@
         <v>81</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>104</v>
@@ -20417,10 +20414,10 @@
         <v>79</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>79</v>
@@ -20431,13 +20428,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C153" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C153" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>79</v>
@@ -20459,13 +20456,13 @@
         <v>79</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -20516,7 +20513,7 @@
         <v>79</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -20528,16 +20525,16 @@
         <v>79</v>
       </c>
       <c r="AJ153" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL153" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AK153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL153" t="s" s="2">
+      <c r="AM153" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>79</v>
@@ -20548,10 +20545,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20663,10 +20660,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20780,14 +20777,14 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
@@ -20809,10 +20806,10 @@
         <v>137</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N156" t="s" s="2">
         <v>207</v>
@@ -20867,7 +20864,7 @@
         <v>79</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -20899,18 +20896,18 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>92</v>
@@ -20928,16 +20925,16 @@
         <v>152</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>79</v>
@@ -20986,7 +20983,7 @@
         <v>79</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21004,10 +21001,10 @@
         <v>79</v>
       </c>
       <c r="AL157" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM157" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>79</v>
@@ -21018,10 +21015,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21029,7 +21026,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>92</v>
@@ -21047,16 +21044,16 @@
         <v>265</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="N158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>79</v>
@@ -21066,7 +21063,7 @@
         <v>79</v>
       </c>
       <c r="S158" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>79</v>
@@ -21084,11 +21081,11 @@
         <v>332</v>
       </c>
       <c r="Y158" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Z158" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Z158" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="AA158" t="s" s="2">
         <v>79</v>
       </c>
@@ -21105,7 +21102,7 @@
         <v>79</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21137,10 +21134,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21163,17 +21160,17 @@
         <v>79</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="M159" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>79</v>
@@ -21222,7 +21219,7 @@
         <v>79</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21240,24 +21237,24 @@
         <v>79</v>
       </c>
       <c r="AL159" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM159" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AN159" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21280,16 +21277,16 @@
         <v>79</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -21339,7 +21336,7 @@
         <v>79</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21360,7 +21357,7 @@
         <v>79</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>79</v>
@@ -21371,10 +21368,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21400,13 +21397,13 @@
         <v>122</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -21456,7 +21453,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21465,7 +21462,7 @@
         <v>92</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>104</v>
@@ -21474,10 +21471,10 @@
         <v>79</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>79</v>
@@ -21488,10 +21485,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21517,16 +21514,16 @@
         <v>112</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="N162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>79</v>
@@ -21554,11 +21551,11 @@
         <v>259</v>
       </c>
       <c r="Y162" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z162" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="Z162" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AA162" t="s" s="2">
         <v>79</v>
       </c>
@@ -21575,7 +21572,7 @@
         <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21593,7 +21590,7 @@
         <v>79</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>156</v>
@@ -21607,10 +21604,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21636,16 +21633,16 @@
         <v>265</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="N163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>79</v>
@@ -21673,11 +21670,11 @@
         <v>116</v>
       </c>
       <c r="Y163" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z163" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="Z163" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AA163" t="s" s="2">
         <v>79</v>
       </c>
@@ -21694,7 +21691,7 @@
         <v>79</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -21712,7 +21709,7 @@
         <v>79</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>156</v>
@@ -21726,10 +21723,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21752,16 +21749,16 @@
         <v>79</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
@@ -21811,7 +21808,7 @@
         <v>79</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -21820,7 +21817,7 @@
         <v>81</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>104</v>
@@ -21829,10 +21826,10 @@
         <v>79</v>
       </c>
       <c r="AL164" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM164" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>79</v>
@@ -21843,10 +21840,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21872,16 +21869,16 @@
         <v>265</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M165" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M165" t="s" s="2">
+      <c r="N165" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>79</v>
@@ -21909,11 +21906,11 @@
         <v>116</v>
       </c>
       <c r="Y165" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z165" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="Z165" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA165" t="s" s="2">
         <v>79</v>
       </c>
@@ -21930,7 +21927,7 @@
         <v>79</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -21939,7 +21936,7 @@
         <v>92</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>104</v>
@@ -21948,7 +21945,7 @@
         <v>79</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>156</v>
@@ -21962,10 +21959,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21991,13 +21988,13 @@
         <v>79</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
@@ -22047,7 +22044,7 @@
         <v>79</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22056,7 +22053,7 @@
         <v>81</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>104</v>
@@ -22065,10 +22062,10 @@
         <v>79</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>79</v>
@@ -22079,13 +22076,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>79</v>
@@ -22107,13 +22104,13 @@
         <v>79</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22164,7 +22161,7 @@
         <v>79</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22176,16 +22173,16 @@
         <v>79</v>
       </c>
       <c r="AJ167" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL167" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AK167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL167" t="s" s="2">
+      <c r="AM167" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>79</v>
@@ -22196,10 +22193,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22311,10 +22308,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22428,14 +22425,14 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
@@ -22457,10 +22454,10 @@
         <v>137</v>
       </c>
       <c r="L170" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N170" t="s" s="2">
         <v>207</v>
@@ -22515,7 +22512,7 @@
         <v>79</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -22547,14 +22544,14 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
@@ -22576,16 +22573,16 @@
         <v>152</v>
       </c>
       <c r="L171" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N171" t="s" s="2">
+      <c r="O171" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>79</v>
@@ -22634,7 +22631,7 @@
         <v>79</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -22652,10 +22649,10 @@
         <v>79</v>
       </c>
       <c r="AL171" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM171" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM171" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>79</v>
@@ -22666,10 +22663,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22695,16 +22692,16 @@
         <v>265</v>
       </c>
       <c r="L172" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="N172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>79</v>
@@ -22714,7 +22711,7 @@
         <v>79</v>
       </c>
       <c r="S172" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="T172" t="s" s="2">
         <v>79</v>
@@ -22732,11 +22729,11 @@
         <v>332</v>
       </c>
       <c r="Y172" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Z172" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Z172" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="AA172" t="s" s="2">
         <v>79</v>
       </c>
@@ -22753,7 +22750,7 @@
         <v>79</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -22785,10 +22782,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22811,17 +22808,17 @@
         <v>79</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>79</v>
@@ -22870,7 +22867,7 @@
         <v>79</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -22888,24 +22885,24 @@
         <v>79</v>
       </c>
       <c r="AL173" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM173" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM173" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AN173" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -22928,16 +22925,16 @@
         <v>79</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L174" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -22987,7 +22984,7 @@
         <v>79</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23008,7 +23005,7 @@
         <v>79</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>79</v>
@@ -23019,10 +23016,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23048,13 +23045,13 @@
         <v>122</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -23104,7 +23101,7 @@
         <v>79</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23113,7 +23110,7 @@
         <v>92</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>104</v>
@@ -23122,10 +23119,10 @@
         <v>79</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>79</v>
@@ -23136,10 +23133,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23165,16 +23162,16 @@
         <v>112</v>
       </c>
       <c r="L176" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M176" t="s" s="2">
+      <c r="N176" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="N176" t="s" s="2">
+      <c r="O176" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>79</v>
@@ -23202,11 +23199,11 @@
         <v>259</v>
       </c>
       <c r="Y176" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z176" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="Z176" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AA176" t="s" s="2">
         <v>79</v>
       </c>
@@ -23223,7 +23220,7 @@
         <v>79</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23241,7 +23238,7 @@
         <v>79</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>156</v>
@@ -23255,10 +23252,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23284,16 +23281,16 @@
         <v>265</v>
       </c>
       <c r="L177" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M177" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="N177" t="s" s="2">
+      <c r="O177" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>79</v>
@@ -23321,11 +23318,11 @@
         <v>116</v>
       </c>
       <c r="Y177" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z177" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="Z177" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AA177" t="s" s="2">
         <v>79</v>
       </c>
@@ -23342,7 +23339,7 @@
         <v>79</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23360,7 +23357,7 @@
         <v>79</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>156</v>
@@ -23374,10 +23371,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23400,16 +23397,16 @@
         <v>79</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L178" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
@@ -23459,7 +23456,7 @@
         <v>79</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -23468,7 +23465,7 @@
         <v>81</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>104</v>
@@ -23477,10 +23474,10 @@
         <v>79</v>
       </c>
       <c r="AL178" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM178" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AM178" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>79</v>
@@ -23491,10 +23488,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23520,16 +23517,16 @@
         <v>265</v>
       </c>
       <c r="L179" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M179" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="N179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>79</v>
@@ -23557,11 +23554,11 @@
         <v>116</v>
       </c>
       <c r="Y179" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z179" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="Z179" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA179" t="s" s="2">
         <v>79</v>
       </c>
@@ -23578,7 +23575,7 @@
         <v>79</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -23587,7 +23584,7 @@
         <v>92</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>104</v>
@@ -23596,7 +23593,7 @@
         <v>79</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>156</v>
@@ -23610,10 +23607,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -23639,13 +23636,13 @@
         <v>79</v>
       </c>
       <c r="L180" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M180" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
@@ -23695,7 +23692,7 @@
         <v>79</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -23704,7 +23701,7 @@
         <v>81</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>104</v>
@@ -23713,10 +23710,10 @@
         <v>79</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>79</v>
@@ -23727,13 +23724,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C181" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C181" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>79</v>
@@ -23755,13 +23752,13 @@
         <v>79</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L181" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -23812,7 +23809,7 @@
         <v>79</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -23824,16 +23821,16 @@
         <v>79</v>
       </c>
       <c r="AJ181" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL181" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AK181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL181" t="s" s="2">
+      <c r="AM181" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AM181" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>79</v>
@@ -23844,10 +23841,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -23959,10 +23956,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24076,14 +24073,14 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
@@ -24105,10 +24102,10 @@
         <v>137</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N184" t="s" s="2">
         <v>207</v>
@@ -24163,7 +24160,7 @@
         <v>79</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -24195,14 +24192,14 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -24224,16 +24221,16 @@
         <v>152</v>
       </c>
       <c r="L185" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N185" t="s" s="2">
+      <c r="O185" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>79</v>
@@ -24282,7 +24279,7 @@
         <v>79</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -24300,10 +24297,10 @@
         <v>79</v>
       </c>
       <c r="AL185" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM185" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>79</v>
@@ -24314,10 +24311,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24343,16 +24340,16 @@
         <v>265</v>
       </c>
       <c r="L186" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="N186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>79</v>
@@ -24362,7 +24359,7 @@
         <v>79</v>
       </c>
       <c r="S186" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="T186" t="s" s="2">
         <v>79</v>
@@ -24380,11 +24377,11 @@
         <v>332</v>
       </c>
       <c r="Y186" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Z186" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Z186" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="AA186" t="s" s="2">
         <v>79</v>
       </c>
@@ -24401,7 +24398,7 @@
         <v>79</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -24433,10 +24430,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24459,17 +24456,17 @@
         <v>79</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="M187" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>79</v>
@@ -24518,7 +24515,7 @@
         <v>79</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -24536,24 +24533,24 @@
         <v>79</v>
       </c>
       <c r="AL187" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM187" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM187" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AN187" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO187" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24576,16 +24573,16 @@
         <v>79</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L188" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -24635,7 +24632,7 @@
         <v>79</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -24656,7 +24653,7 @@
         <v>79</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>79</v>
@@ -24667,10 +24664,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -24696,13 +24693,13 @@
         <v>122</v>
       </c>
       <c r="L189" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M189" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M189" t="s" s="2">
+      <c r="N189" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
@@ -24752,7 +24749,7 @@
         <v>79</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>80</v>
@@ -24761,7 +24758,7 @@
         <v>92</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>104</v>
@@ -24770,10 +24767,10 @@
         <v>79</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>79</v>
@@ -24784,10 +24781,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -24813,16 +24810,16 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M190" t="s" s="2">
+      <c r="N190" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="N190" t="s" s="2">
+      <c r="O190" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="O190" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>79</v>
@@ -24850,11 +24847,11 @@
         <v>259</v>
       </c>
       <c r="Y190" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z190" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="Z190" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AA190" t="s" s="2">
         <v>79</v>
       </c>
@@ -24871,7 +24868,7 @@
         <v>79</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -24889,7 +24886,7 @@
         <v>79</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>156</v>
@@ -24903,10 +24900,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -24932,16 +24929,16 @@
         <v>265</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M191" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="N191" t="s" s="2">
+      <c r="O191" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>79</v>
@@ -24969,11 +24966,11 @@
         <v>116</v>
       </c>
       <c r="Y191" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z191" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="Z191" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AA191" t="s" s="2">
         <v>79</v>
       </c>
@@ -24990,7 +24987,7 @@
         <v>79</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -25008,7 +25005,7 @@
         <v>79</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>156</v>
@@ -25022,10 +25019,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25048,16 +25045,16 @@
         <v>79</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -25107,7 +25104,7 @@
         <v>79</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -25116,7 +25113,7 @@
         <v>81</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>104</v>
@@ -25125,10 +25122,10 @@
         <v>79</v>
       </c>
       <c r="AL192" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM192" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AM192" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>79</v>
@@ -25139,10 +25136,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25168,16 +25165,16 @@
         <v>265</v>
       </c>
       <c r="L193" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M193" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="N193" t="s" s="2">
+      <c r="O193" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="O193" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>79</v>
@@ -25205,11 +25202,11 @@
         <v>116</v>
       </c>
       <c r="Y193" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z193" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="Z193" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA193" t="s" s="2">
         <v>79</v>
       </c>
@@ -25226,7 +25223,7 @@
         <v>79</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -25235,7 +25232,7 @@
         <v>92</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>104</v>
@@ -25244,7 +25241,7 @@
         <v>79</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>156</v>
@@ -25258,10 +25255,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25287,13 +25284,13 @@
         <v>79</v>
       </c>
       <c r="L194" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M194" t="s" s="2">
+      <c r="N194" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
@@ -25343,7 +25340,7 @@
         <v>79</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -25352,7 +25349,7 @@
         <v>81</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>104</v>
@@ -25361,10 +25358,10 @@
         <v>79</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>79</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition-strict.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition-strict.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7763" uniqueCount="739">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -863,7 +863,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -943,7 +943,7 @@
     <t>Composition.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2267,6 +2267,63 @@
   </si>
   <si>
     <t>Composition.section:lab-gt.section</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero</t>
+  </si>
+  <si>
+    <t>lab-sero</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.id</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.extension</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.title</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.code</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="18727-8"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.author</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.focus</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.text</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.mode</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.orderedBy</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-results-hiv-recency-strict)
+</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.emptyReason</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.section</t>
   </si>
 </sst>
 </file>
@@ -2573,7 +2630,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO194"/>
+  <dimension ref="A1:AO208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -25370,6 +25427,1654 @@
         <v>79</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="D195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q195" s="2"/>
+      <c r="R195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL195" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM195" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO195" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q196" s="2"/>
+      <c r="R196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL196" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO196" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O197" s="2"/>
+      <c r="P197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q197" s="2"/>
+      <c r="R197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL197" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO197" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="E198" s="2"/>
+      <c r="F198" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q198" s="2"/>
+      <c r="R198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL198" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AM198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO198" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N199" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O199" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="P199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q199" s="2"/>
+      <c r="R199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL199" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM199" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO199" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E200" s="2"/>
+      <c r="F200" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G200" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N200" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O200" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="P200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q200" s="2"/>
+      <c r="R200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S200" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL200" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM200" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO200" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E201" s="2"/>
+      <c r="F201" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G201" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N201" s="2"/>
+      <c r="O201" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="P201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q201" s="2"/>
+      <c r="R201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL201" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM201" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO201" t="s" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G202" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O202" s="2"/>
+      <c r="P202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q202" s="2"/>
+      <c r="R202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM202" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AN202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO202" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E203" s="2"/>
+      <c r="F203" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O203" s="2"/>
+      <c r="P203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q203" s="2"/>
+      <c r="R203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL203" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM203" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO203" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G204" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="O204" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="P204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q204" s="2"/>
+      <c r="R204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL204" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM204" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AN204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO204" t="s" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E205" s="2"/>
+      <c r="F205" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G205" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="P205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q205" s="2"/>
+      <c r="R205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL205" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM205" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AN205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO205" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E206" s="2"/>
+      <c r="F206" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G206" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="O206" s="2"/>
+      <c r="P206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q206" s="2"/>
+      <c r="R206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AG206" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH206" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL206" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM206" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AN206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO206" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E207" s="2"/>
+      <c r="F207" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G207" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="O207" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="P207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q207" s="2"/>
+      <c r="R207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X207" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y207" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF207" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AG207" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH207" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI207" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AJ207" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL207" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM207" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AN207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO207" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E208" s="2"/>
+      <c r="F208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N208" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O208" s="2"/>
+      <c r="P208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q208" s="2"/>
+      <c r="R208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF208" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI208" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL208" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM208" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AN208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO208" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition-strict.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition-strict.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition-strict.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
